--- a/homework 6.xlsx
+++ b/homework 6.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csilos/Documents/Senior Yr/Spring/SYS 611/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C543D00-C14D-CC45-854F-C31449DBE5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C55D89-9183-DA44-836E-9B78E41705FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15880" activeTab="1" xr2:uid="{A5F1B276-9BE7-EF40-B56A-9FC3A2785558}"/>
+    <workbookView xWindow="28800" yWindow="-18260" windowWidth="26220" windowHeight="26600" activeTab="2" xr2:uid="{A5F1B276-9BE7-EF40-B56A-9FC3A2785558}"/>
   </bookViews>
   <sheets>
     <sheet name="6.1a" sheetId="1" r:id="rId1"/>
     <sheet name="6.1b" sheetId="2" r:id="rId2"/>
+    <sheet name="6.2b" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Customer</t>
   </si>
@@ -86,15 +87,46 @@
   </si>
   <si>
     <t>W_T</t>
+  </si>
+  <si>
+    <t>r_d</t>
+  </si>
+  <si>
+    <t>r_s</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>t_d</t>
+  </si>
+  <si>
+    <t>N(t+1)</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -151,19 +183,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{3E55AC94-1502-2D47-9769-246EDFEF1CDA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -681,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8EB2EBF-4BC8-784B-B684-A862702B49F4}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1086,4 +1133,565 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1265A1B6-B38C-214C-9DDB-08539B7064E0}">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="6" width="8.83203125" style="6"/>
+    <col min="7" max="7" width="8.83203125" style="7"/>
+    <col min="8" max="8" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="15">
+        <v>40</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="15">
+        <v>0</v>
+      </c>
+      <c r="G2" s="16">
+        <v>999</v>
+      </c>
+      <c r="H2" s="15">
+        <v>40</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0.88</v>
+      </c>
+      <c r="D3" s="11">
+        <v>40</v>
+      </c>
+      <c r="E3" s="11">
+        <f>VLOOKUP(B3,$J$3:$K$5,2,TRUE)</f>
+        <v>2</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10">
+        <v>999</v>
+      </c>
+      <c r="H3" s="11">
+        <f>D3-E3+IF(G3&lt;A3+1,40,0)</f>
+        <v>38</v>
+      </c>
+      <c r="J3" s="11">
+        <v>0</v>
+      </c>
+      <c r="K3" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D4" s="11">
+        <f>H3</f>
+        <v>38</v>
+      </c>
+      <c r="E4" s="11">
+        <f>VLOOKUP(B4,$J$3:$K$11,2,TRUE)</f>
+        <v>3</v>
+      </c>
+      <c r="F4" s="11">
+        <f>F3+IF(D4-E4&lt;0,-D4+E4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="10">
+        <f>IF(AND(D4-E4&lt;30,OR(G3=999,G3&lt;A4)),A4+5-4*LN(1-C4),IF(G3&lt;A4+1,999,G3))</f>
+        <v>999</v>
+      </c>
+      <c r="H4" s="11">
+        <f>D4-E4+IF(G3&lt;A4+1,40,0)</f>
+        <v>35</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0.13</v>
+      </c>
+      <c r="K4" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D5" s="11">
+        <f>H4</f>
+        <v>35</v>
+      </c>
+      <c r="E5" s="11">
+        <f>VLOOKUP(B5,$J$3:$K$11,2,TRUE)</f>
+        <v>5</v>
+      </c>
+      <c r="F5" s="11">
+        <f>F4+IF(D5-E5&lt;0,-D5+E5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="10">
+        <f>IF(AND(D5-E5&lt;30,OR(G4=999,G4&lt;A5)),A5+5-4*LN(1-C5),IF(G4&lt;A5+1,999,G4))</f>
+        <v>999</v>
+      </c>
+      <c r="H5" s="11">
+        <f>D5-E5+IF(G4&lt;A5+1,40,0)</f>
+        <v>30</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K5" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D6" s="11">
+        <f>H5</f>
+        <v>30</v>
+      </c>
+      <c r="E6" s="11">
+        <f>VLOOKUP(B6,$J$3:$K$11,2,TRUE)</f>
+        <v>2</v>
+      </c>
+      <c r="F6" s="11">
+        <f>F5+IF(D6-E6&lt;0,-D6+E6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="10">
+        <f>IF(AND(D6-E6&lt;30,OR(G5=999,G5&lt;A6)),A6+5-4*LN(1-C6),IF(G5&lt;A6+1,999,G5))</f>
+        <v>12.194030784871087</v>
+      </c>
+      <c r="H6" s="11">
+        <f>D6-E6+IF(G5&lt;A6+1,40,0)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12">
+        <v>0.84</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0.27</v>
+      </c>
+      <c r="D7" s="11">
+        <f>H6</f>
+        <v>28</v>
+      </c>
+      <c r="E7" s="11">
+        <f>VLOOKUP(B7,$J$3:$K$11,2,TRUE)</f>
+        <v>5</v>
+      </c>
+      <c r="F7" s="11">
+        <f>F6+IF(D7-E7&lt;0,-D7+E7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="10">
+        <f>IF(AND(D7-E7&lt;30,OR(G6=999,G6&lt;A7)),A7+5-4*LN(1-C7),IF(G6&lt;A7+1,999,G6))</f>
+        <v>12.194030784871087</v>
+      </c>
+      <c r="H7" s="11">
+        <f>D7-E7+IF(G6&lt;A7+1,40,0)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0.62</v>
+      </c>
+      <c r="D8" s="11">
+        <f>H7</f>
+        <v>23</v>
+      </c>
+      <c r="E8" s="11">
+        <f>VLOOKUP(B8,$J$3:$K$11,2,TRUE)</f>
+        <v>3</v>
+      </c>
+      <c r="F8" s="11">
+        <f>F7+IF(D8-E8&lt;0,-D8+E8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="10">
+        <f>IF(AND(D8-E8&lt;30,OR(G7=999,G7&lt;A8)),A8+5-4*LN(1-C8),IF(G7&lt;A8+1,999,G7))</f>
+        <v>12.194030784871087</v>
+      </c>
+      <c r="H8" s="11">
+        <f>D8-E8+IF(G7&lt;A8+1,40,0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12">
+        <v>0.26</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0.16</v>
+      </c>
+      <c r="D9" s="11">
+        <f>H8</f>
+        <v>20</v>
+      </c>
+      <c r="E9" s="11">
+        <f>VLOOKUP(B9,$J$3:$K$11,2,TRUE)</f>
+        <v>3</v>
+      </c>
+      <c r="F9" s="11">
+        <f>F8+IF(D9-E9&lt;0,-D9+E9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="10">
+        <f>IF(AND(D9-E9&lt;30,OR(G8=999,G8&lt;A9)),A9+5-4*LN(1-C9),IF(G8&lt;A9+1,999,G8))</f>
+        <v>12.194030784871087</v>
+      </c>
+      <c r="H9" s="11">
+        <f>D9-E9+IF(G8&lt;A9+1,40,0)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
+        <v>8</v>
+      </c>
+      <c r="B10" s="12">
+        <v>0.44</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="D10" s="11">
+        <f>H9</f>
+        <v>17</v>
+      </c>
+      <c r="E10" s="11">
+        <f>VLOOKUP(B10,$J$3:$K$11,2,TRUE)</f>
+        <v>3</v>
+      </c>
+      <c r="F10" s="11">
+        <f>F9+IF(D10-E10&lt;0,-D10+E10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="10">
+        <f>IF(AND(D10-E10&lt;30,OR(G9=999,G9&lt;A10)),A10+5-4*LN(1-C10),IF(G9&lt;A10+1,999,G9))</f>
+        <v>12.194030784871087</v>
+      </c>
+      <c r="H10" s="11">
+        <f>D10-E10+IF(G9&lt;A10+1,40,0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12">
+        <v>0.43</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0.22</v>
+      </c>
+      <c r="D11" s="11">
+        <f>H10</f>
+        <v>14</v>
+      </c>
+      <c r="E11" s="11">
+        <f>VLOOKUP(B11,$J$3:$K$11,2,TRUE)</f>
+        <v>3</v>
+      </c>
+      <c r="F11" s="11">
+        <f>F10+IF(D11-E11&lt;0,-D11+E11,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="10">
+        <f>IF(AND(D11-E11&lt;30,OR(G10=999,G10&lt;A11)),A11+5-4*LN(1-C11),IF(G10&lt;A11+1,999,G10))</f>
+        <v>12.194030784871087</v>
+      </c>
+      <c r="H11" s="11">
+        <f>D11-E11+IF(G10&lt;A11+1,40,0)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
+        <v>10</v>
+      </c>
+      <c r="B12" s="12">
+        <v>0.73</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="D12" s="11">
+        <f>H11</f>
+        <v>11</v>
+      </c>
+      <c r="E12" s="11">
+        <f>VLOOKUP(B12,$J$3:$K$11,2,TRUE)</f>
+        <v>5</v>
+      </c>
+      <c r="F12" s="11">
+        <f>F11+IF(D12-E12&lt;0,-D12+E12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="10">
+        <f>IF(AND(D12-E12&lt;30,OR(G11=999,G11&lt;A12)),A12+5-4*LN(1-C12),IF(G11&lt;A12+1,999,G11))</f>
+        <v>12.194030784871087</v>
+      </c>
+      <c r="H12" s="11">
+        <f>D12-E12+IF(G11&lt;A12+1,40,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
+        <v>11</v>
+      </c>
+      <c r="B13" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0.84</v>
+      </c>
+      <c r="D13" s="11">
+        <f>H12</f>
+        <v>6</v>
+      </c>
+      <c r="E13" s="11">
+        <f>VLOOKUP(B13,$J$3:$K$11,2,TRUE)</f>
+        <v>2</v>
+      </c>
+      <c r="F13" s="11">
+        <f>F12+IF(D13-E13&lt;0,-D13+E13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="10">
+        <f>IF(AND(D13-E13&lt;30,OR(G12=999,G12&lt;A13)),A13+5-4*LN(1-C13),IF(G12&lt;A13+1,999,G12))</f>
+        <v>12.194030784871087</v>
+      </c>
+      <c r="H13" s="11">
+        <f>D13-E13+IF(G12&lt;A13+1,40,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0.22</v>
+      </c>
+      <c r="D14" s="11">
+        <f>H13</f>
+        <v>4</v>
+      </c>
+      <c r="E14" s="11">
+        <f>VLOOKUP(B14,$J$3:$K$11,2,TRUE)</f>
+        <v>5</v>
+      </c>
+      <c r="F14" s="11">
+        <f>F13+IF(D14-E14&lt;0,-D14+E14,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G14" s="10">
+        <f>IF(AND(D14-E14&lt;30,OR(G13=999,G13&lt;A14)),A14+5-4*LN(1-C14),IF(G13&lt;A14+1,999,G13))</f>
+        <v>999</v>
+      </c>
+      <c r="H14" s="11">
+        <f>D14-E14+IF(G13&lt;A14+1,40,0)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12">
+        <v>0.43</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0.84</v>
+      </c>
+      <c r="D15" s="11">
+        <f>H14</f>
+        <v>39</v>
+      </c>
+      <c r="E15" s="11">
+        <f>VLOOKUP(B15,$J$3:$K$11,2,TRUE)</f>
+        <v>3</v>
+      </c>
+      <c r="F15" s="11">
+        <f>F14+IF(D15-E15&lt;0,-D15+E15,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G15" s="10">
+        <f>IF(AND(D15-E15&lt;30,OR(G14=999,G14&lt;A15)),A15+5-4*LN(1-C15),IF(G14&lt;A15+1,999,G14))</f>
+        <v>999</v>
+      </c>
+      <c r="H15" s="11">
+        <f>D15-E15+IF(G14&lt;A15+1,40,0)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
+        <v>14</v>
+      </c>
+      <c r="B16" s="12">
+        <v>0.49</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0.73</v>
+      </c>
+      <c r="D16" s="11">
+        <f>H15</f>
+        <v>36</v>
+      </c>
+      <c r="E16" s="11">
+        <f>VLOOKUP(B16,$J$3:$K$11,2,TRUE)</f>
+        <v>3</v>
+      </c>
+      <c r="F16" s="11">
+        <f>F15+IF(D16-E16&lt;0,-D16+E16,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="10">
+        <f>IF(AND(D16-E16&lt;30,OR(G15=999,G15&lt;A16)),A16+5-4*LN(1-C16),IF(G15&lt;A16+1,999,G15))</f>
+        <v>999</v>
+      </c>
+      <c r="H16" s="11">
+        <f>D16-E16+IF(G15&lt;A16+1,40,0)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
+        <v>15</v>
+      </c>
+      <c r="B17" s="12">
+        <v>0.17</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0.22</v>
+      </c>
+      <c r="D17" s="11">
+        <f>H16</f>
+        <v>33</v>
+      </c>
+      <c r="E17" s="11">
+        <f>VLOOKUP(B17,$J$3:$K$11,2,TRUE)</f>
+        <v>3</v>
+      </c>
+      <c r="F17" s="11">
+        <f>F16+IF(D17-E17&lt;0,-D17+E17,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G17" s="10">
+        <f>IF(AND(D17-E17&lt;30,OR(G16=999,G16&lt;A17)),A17+5-4*LN(1-C17),IF(G16&lt;A17+1,999,G16))</f>
+        <v>999</v>
+      </c>
+      <c r="H17" s="11">
+        <f>D17-E17+IF(G16&lt;A17+1,40,0)</f>
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>